--- a/data/K-means_scores.xlsx
+++ b/data/K-means_scores.xlsx
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8340806273463094</v>
+        <v>0.603316905107146</v>
       </c>
       <c r="C2" t="n">
-        <v>1009.654059134361</v>
+        <v>1805.643526387972</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5019194848241905</v>
+        <v>0.9525276622380229</v>
       </c>
       <c r="C3" t="n">
-        <v>1082.94084602658</v>
+        <v>1235.234638026886</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5333476981068392</v>
+        <v>0.9291498265753375</v>
       </c>
       <c r="C4" t="n">
-        <v>1932.139058209975</v>
+        <v>1380.974140373209</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6335794456313832</v>
+        <v>0.9868899333872546</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.162954266623</v>
+        <v>1146.607135883875</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7954621478278524</v>
+        <v>0.8706335842344385</v>
       </c>
       <c r="C6" t="n">
-        <v>1736.382198050453</v>
+        <v>1271.910887905379</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6725263108035497</v>
+        <v>0.8164519554194172</v>
       </c>
       <c r="C7" t="n">
-        <v>1783.773450717994</v>
+        <v>1362.79588993639</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8799016915809388</v>
+        <v>0.8211089682103802</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.115322924353</v>
+        <v>1261.84041647223</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.73112050669174</v>
+        <v>0.7819434043386937</v>
       </c>
       <c r="C9" t="n">
-        <v>1698.838614169267</v>
+        <v>1373.975917100355</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.764135769976136</v>
+        <v>0.8216717540095969</v>
       </c>
       <c r="C10" t="n">
-        <v>1664.844131172803</v>
+        <v>1308.257165079661</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7335028779033185</v>
+        <v>0.8573520222236545</v>
       </c>
       <c r="C11" t="n">
-        <v>1864.86192572336</v>
+        <v>1352.306005693163</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7308754587032141</v>
+        <v>0.8121925808186727</v>
       </c>
       <c r="C12" t="n">
-        <v>1897.14170833956</v>
+        <v>1380.483484183667</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7719469370759406</v>
+        <v>0.7824438188032239</v>
       </c>
       <c r="C13" t="n">
-        <v>1855.509805652467</v>
+        <v>1299.087279323032</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7184541750049379</v>
+        <v>0.772328500455859</v>
       </c>
       <c r="C14" t="n">
-        <v>1869.77857774842</v>
+        <v>1357.465172915554</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6383837117151536</v>
+        <v>0.7332024514609743</v>
       </c>
       <c r="C15" t="n">
-        <v>1864.624273886863</v>
+        <v>1339.725796106385</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7399622020074563</v>
+        <v>0.7813002834788174</v>
       </c>
       <c r="C16" t="n">
-        <v>2092.380152664345</v>
+        <v>1410.82694895349</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7432453799933786</v>
+        <v>0.8014126491509646</v>
       </c>
       <c r="C17" t="n">
-        <v>2009.707048149925</v>
+        <v>1451.88520161254</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7753945122851565</v>
+        <v>0.7395738486748944</v>
       </c>
       <c r="C18" t="n">
-        <v>1976.287043936547</v>
+        <v>1385.654764313923</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7050986852545833</v>
+        <v>0.8061930150624118</v>
       </c>
       <c r="C19" t="n">
-        <v>2099.626565617373</v>
+        <v>1442.847800859469</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7022687244558857</v>
+        <v>0.7449753134122601</v>
       </c>
       <c r="C20" t="n">
-        <v>2284.182547743009</v>
+        <v>1496.041025427773</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7081821983794314</v>
+        <v>0.7224286618017547</v>
       </c>
       <c r="C21" t="n">
-        <v>2179.516768369077</v>
+        <v>1587.919404569904</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6874408037277543</v>
+        <v>0.7104454663426466</v>
       </c>
       <c r="C22" t="n">
-        <v>2323.976148622326</v>
+        <v>1586.586917557713</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7714710919437622</v>
+        <v>0.7088464648160786</v>
       </c>
       <c r="C23" t="n">
-        <v>2133.905184859146</v>
+        <v>1573.195876693858</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7057129563330951</v>
+        <v>0.7076019236568699</v>
       </c>
       <c r="C24" t="n">
-        <v>2285.040901439602</v>
+        <v>1526.017669701598</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7125839876496702</v>
+        <v>0.7069042075092915</v>
       </c>
       <c r="C25" t="n">
-        <v>2351.192244541353</v>
+        <v>1578.805623726342</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7887743471089155</v>
+        <v>0.7340083696617756</v>
       </c>
       <c r="C26" t="n">
-        <v>2129.628242741105</v>
+        <v>1564.250373004603</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7175920069826366</v>
+        <v>0.7624627421741389</v>
       </c>
       <c r="C27" t="n">
-        <v>2408.033346553017</v>
+        <v>1530.205871466613</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7717652919801584</v>
+        <v>0.7828775663284964</v>
       </c>
       <c r="C28" t="n">
-        <v>2233.774970922914</v>
+        <v>1479.976987684186</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7682406339532722</v>
+        <v>0.6697923705713072</v>
       </c>
       <c r="C29" t="n">
-        <v>2346.381231129881</v>
+        <v>1520.881015009791</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6827797945152175</v>
+        <v>0.7580718778547061</v>
       </c>
       <c r="C30" t="n">
-        <v>2260.051184096024</v>
+        <v>1611.03843196276</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7454394046532813</v>
+        <v>0.7589446239179841</v>
       </c>
       <c r="C31" t="n">
-        <v>2314.309242574339</v>
+        <v>1530.163216756877</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7362168657005741</v>
+        <v>0.721673379145793</v>
       </c>
       <c r="C32" t="n">
-        <v>2431.276519124684</v>
+        <v>1612.284277571835</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7098610860147803</v>
+        <v>0.6765925501757006</v>
       </c>
       <c r="C33" t="n">
-        <v>2336.590508679133</v>
+        <v>1603.327557146045</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7212201128450695</v>
+        <v>0.7194135883967788</v>
       </c>
       <c r="C34" t="n">
-        <v>2334.862492923246</v>
+        <v>1582.357960887894</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7225656023930724</v>
+        <v>0.7726789962848838</v>
       </c>
       <c r="C35" t="n">
-        <v>2359.122293746807</v>
+        <v>1607.616429066281</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7040408071034068</v>
+        <v>0.781007656759595</v>
       </c>
       <c r="C36" t="n">
-        <v>2495.821059350132</v>
+        <v>1542.733199847273</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7199134130682397</v>
+        <v>0.7343580802776893</v>
       </c>
       <c r="C37" t="n">
-        <v>2370.996104033096</v>
+        <v>1620.59196609486</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7127733022124749</v>
+        <v>0.7129353760130662</v>
       </c>
       <c r="C38" t="n">
-        <v>2460.248698434556</v>
+        <v>1560.801710586695</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6957843479236224</v>
+        <v>0.7732664432038724</v>
       </c>
       <c r="C39" t="n">
-        <v>2503.952777072696</v>
+        <v>1630.954791457456</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7025397940430391</v>
+        <v>0.7439398529412873</v>
       </c>
       <c r="C40" t="n">
-        <v>2492.930047461763</v>
+        <v>1585.212483193706</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>0.718888369790235</v>
+        <v>0.6971697801509364</v>
       </c>
       <c r="C41" t="n">
-        <v>2537.606281154693</v>
+        <v>1629.416130709634</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0.777891576118441</v>
+        <v>0.7410976701866453</v>
       </c>
       <c r="C42" t="n">
-        <v>2466.207175763543</v>
+        <v>1649.629063886762</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0.664158247771415</v>
+        <v>0.6853864355363327</v>
       </c>
       <c r="C43" t="n">
-        <v>2329.715865052107</v>
+        <v>1624.058545250577</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6981707174798919</v>
+        <v>0.7595930446632061</v>
       </c>
       <c r="C44" t="n">
-        <v>2602.081133002211</v>
+        <v>1639.287556079704</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7328209907075895</v>
+        <v>0.7173330327907628</v>
       </c>
       <c r="C45" t="n">
-        <v>2456.059557754668</v>
+        <v>1562.563781680828</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7194541509527292</v>
+        <v>0.7438024203348101</v>
       </c>
       <c r="C46" t="n">
-        <v>2534.684087845603</v>
+        <v>1651.323066349993</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7687566916931885</v>
+        <v>0.7360221389961827</v>
       </c>
       <c r="C47" t="n">
-        <v>2377.820384582517</v>
+        <v>1691.040712101013</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7168782400834269</v>
+        <v>0.8033983293329022</v>
       </c>
       <c r="C48" t="n">
-        <v>2493.048509480161</v>
+        <v>1589.245128801751</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7223618180502062</v>
+        <v>0.6917787451921058</v>
       </c>
       <c r="C49" t="n">
-        <v>2559.941564426386</v>
+        <v>1689.311816119474</v>
       </c>
     </row>
   </sheetData>

--- a/data/K-means_scores.xlsx
+++ b/data/K-means_scores.xlsx
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9525276622380229</v>
+        <v>0.7387065803145364</v>
       </c>
       <c r="C3" t="n">
-        <v>1235.234638026886</v>
+        <v>1418.064951106803</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9291498265753375</v>
+        <v>0.9263296593181194</v>
       </c>
       <c r="C4" t="n">
-        <v>1380.974140373209</v>
+        <v>1381.606460788234</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9868899333872546</v>
+        <v>0.8202534378310444</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.607135883875</v>
+        <v>1314.393197728917</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8706335842344385</v>
+        <v>0.7912127567449216</v>
       </c>
       <c r="C6" t="n">
-        <v>1271.910887905379</v>
+        <v>1332.858841752149</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8164519554194172</v>
+        <v>0.8821704007967212</v>
       </c>
       <c r="C7" t="n">
-        <v>1362.79588993639</v>
+        <v>1222.191871825876</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8211089682103802</v>
+        <v>0.7876802515525159</v>
       </c>
       <c r="C8" t="n">
-        <v>1261.84041647223</v>
+        <v>1191.463304134884</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7819434043386937</v>
+        <v>0.7463155781993508</v>
       </c>
       <c r="C9" t="n">
-        <v>1373.975917100355</v>
+        <v>1448.601420372209</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8216717540095969</v>
+        <v>0.8139133963313953</v>
       </c>
       <c r="C10" t="n">
-        <v>1308.257165079661</v>
+        <v>1189.935547348139</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8573520222236545</v>
+        <v>0.8115711631160543</v>
       </c>
       <c r="C11" t="n">
-        <v>1352.306005693163</v>
+        <v>1394.467823432181</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8121925808186727</v>
+        <v>0.7718705622446927</v>
       </c>
       <c r="C12" t="n">
-        <v>1380.483484183667</v>
+        <v>1431.848789238888</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7824438188032239</v>
+        <v>0.813477420360357</v>
       </c>
       <c r="C13" t="n">
-        <v>1299.087279323032</v>
+        <v>1414.564115348205</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.772328500455859</v>
+        <v>0.8449191719864813</v>
       </c>
       <c r="C14" t="n">
-        <v>1357.465172915554</v>
+        <v>1304.614397258924</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7332024514609743</v>
+        <v>0.8063001352684335</v>
       </c>
       <c r="C15" t="n">
-        <v>1339.725796106385</v>
+        <v>1443.381395284079</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7813002834788174</v>
+        <v>0.7695342094664741</v>
       </c>
       <c r="C16" t="n">
-        <v>1410.82694895349</v>
+        <v>1497.311847696397</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8014126491509646</v>
+        <v>0.7972671019527494</v>
       </c>
       <c r="C17" t="n">
-        <v>1451.88520161254</v>
+        <v>1461.831581417386</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7395738486748944</v>
+        <v>0.7478024414118269</v>
       </c>
       <c r="C18" t="n">
-        <v>1385.654764313923</v>
+        <v>1514.134377042385</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8061930150624118</v>
+        <v>0.7381790311790088</v>
       </c>
       <c r="C19" t="n">
-        <v>1442.847800859469</v>
+        <v>1532.68004291905</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7449753134122601</v>
+        <v>0.7868738594577673</v>
       </c>
       <c r="C20" t="n">
-        <v>1496.041025427773</v>
+        <v>1477.096851418144</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7224286618017547</v>
+        <v>0.7200437396421409</v>
       </c>
       <c r="C21" t="n">
-        <v>1587.919404569904</v>
+        <v>1581.12087573014</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7104454663426466</v>
+        <v>0.7594338703062931</v>
       </c>
       <c r="C22" t="n">
-        <v>1586.586917557713</v>
+        <v>1517.862603532417</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7088464648160786</v>
+        <v>0.720469005570727</v>
       </c>
       <c r="C23" t="n">
-        <v>1573.195876693858</v>
+        <v>1581.283859704751</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7076019236568699</v>
+        <v>0.6989943912529167</v>
       </c>
       <c r="C24" t="n">
-        <v>1526.017669701598</v>
+        <v>1580.471444112776</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7069042075092915</v>
+        <v>0.7156609381928698</v>
       </c>
       <c r="C25" t="n">
-        <v>1578.805623726342</v>
+        <v>1457.483391495165</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7340083696617756</v>
+        <v>0.6788650371170379</v>
       </c>
       <c r="C26" t="n">
-        <v>1564.250373004603</v>
+        <v>1477.067066054956</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7624627421741389</v>
+        <v>0.7120278491430717</v>
       </c>
       <c r="C27" t="n">
-        <v>1530.205871466613</v>
+        <v>1608.547913978742</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7828775663284964</v>
+        <v>0.7784994347161992</v>
       </c>
       <c r="C28" t="n">
-        <v>1479.976987684186</v>
+        <v>1578.836187895883</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6697923705713072</v>
+        <v>0.7639797091839264</v>
       </c>
       <c r="C29" t="n">
-        <v>1520.881015009791</v>
+        <v>1544.568433333829</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7580718778547061</v>
+        <v>0.7566202658369076</v>
       </c>
       <c r="C30" t="n">
-        <v>1611.03843196276</v>
+        <v>1548.076208345896</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7589446239179841</v>
+        <v>0.7401676460122628</v>
       </c>
       <c r="C31" t="n">
-        <v>1530.163216756877</v>
+        <v>1499.088447188997</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.721673379145793</v>
+        <v>0.7746230282954534</v>
       </c>
       <c r="C32" t="n">
-        <v>1612.284277571835</v>
+        <v>1630.772854336072</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6765925501757006</v>
+        <v>0.7317269250485201</v>
       </c>
       <c r="C33" t="n">
-        <v>1603.327557146045</v>
+        <v>1575.657392079685</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7194135883967788</v>
+        <v>0.7391398467160007</v>
       </c>
       <c r="C34" t="n">
-        <v>1582.357960887894</v>
+        <v>1570.719370411625</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7726789962848838</v>
+        <v>0.7084550057977019</v>
       </c>
       <c r="C35" t="n">
-        <v>1607.616429066281</v>
+        <v>1622.357935767749</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0.781007656759595</v>
+        <v>0.7849904822284267</v>
       </c>
       <c r="C36" t="n">
-        <v>1542.733199847273</v>
+        <v>1594.549843161792</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7343580802776893</v>
+        <v>0.6855554601763578</v>
       </c>
       <c r="C37" t="n">
-        <v>1620.59196609486</v>
+        <v>1556.272916178719</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7129353760130662</v>
+        <v>0.7225527338605553</v>
       </c>
       <c r="C38" t="n">
-        <v>1560.801710586695</v>
+        <v>1617.122178455776</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7732664432038724</v>
+        <v>0.7808176073866452</v>
       </c>
       <c r="C39" t="n">
-        <v>1630.954791457456</v>
+        <v>1648.428838215998</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7439398529412873</v>
+        <v>0.7609893388237812</v>
       </c>
       <c r="C40" t="n">
-        <v>1585.212483193706</v>
+        <v>1606.655121850596</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6971697801509364</v>
+        <v>0.7509970291109104</v>
       </c>
       <c r="C41" t="n">
-        <v>1629.416130709634</v>
+        <v>1630.71651174091</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7410976701866453</v>
+        <v>0.7624025635597717</v>
       </c>
       <c r="C42" t="n">
-        <v>1649.629063886762</v>
+        <v>1618.005034913355</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6853864355363327</v>
+        <v>0.6828457052054407</v>
       </c>
       <c r="C43" t="n">
-        <v>1624.058545250577</v>
+        <v>1714.309911624491</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7595930446632061</v>
+        <v>0.7524910206503761</v>
       </c>
       <c r="C44" t="n">
-        <v>1639.287556079704</v>
+        <v>1671.38992413799</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7173330327907628</v>
+        <v>0.7590206360851326</v>
       </c>
       <c r="C45" t="n">
-        <v>1562.563781680828</v>
+        <v>1622.142770090608</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7438024203348101</v>
+        <v>0.7470175570289763</v>
       </c>
       <c r="C46" t="n">
-        <v>1651.323066349993</v>
+        <v>1647.525646308501</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7360221389961827</v>
+        <v>0.6945623499150776</v>
       </c>
       <c r="C47" t="n">
-        <v>1691.040712101013</v>
+        <v>1694.011211379986</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8033983293329022</v>
+        <v>0.7439730773019925</v>
       </c>
       <c r="C48" t="n">
-        <v>1589.245128801751</v>
+        <v>1679.747432545532</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6917787451921058</v>
+        <v>0.7023469280677366</v>
       </c>
       <c r="C49" t="n">
-        <v>1689.311816119474</v>
+        <v>1649.049109880951</v>
       </c>
     </row>
   </sheetData>

--- a/data/K-means_scores.xlsx
+++ b/data/K-means_scores.xlsx
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7387065803145364</v>
+        <v>0.7376346333270164</v>
       </c>
       <c r="C3" t="n">
-        <v>1418.064951106803</v>
+        <v>1418.137167066371</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9263296593181194</v>
+        <v>0.8340712570648607</v>
       </c>
       <c r="C4" t="n">
-        <v>1381.606460788234</v>
+        <v>1361.597812244564</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8202534378310444</v>
+        <v>0.9160270674149288</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.393197728917</v>
+        <v>1159.099091321378</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7912127567449216</v>
+        <v>0.824005065343029</v>
       </c>
       <c r="C6" t="n">
-        <v>1332.858841752149</v>
+        <v>1231.960407602621</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8821704007967212</v>
+        <v>0.7621139236161313</v>
       </c>
       <c r="C7" t="n">
-        <v>1222.191871825876</v>
+        <v>1330.455102614978</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7876802515525159</v>
+        <v>0.8654575096788437</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.463304134884</v>
+        <v>1114.94910382045</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7463155781993508</v>
+        <v>0.9442614086215294</v>
       </c>
       <c r="C9" t="n">
-        <v>1448.601420372209</v>
+        <v>1160.59480921757</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8139133963313953</v>
+        <v>0.805517335182844</v>
       </c>
       <c r="C10" t="n">
-        <v>1189.935547348139</v>
+        <v>1400.693847367023</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8115711631160543</v>
+        <v>0.7330034863876084</v>
       </c>
       <c r="C11" t="n">
-        <v>1394.467823432181</v>
+        <v>1386.852036360846</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7718705622446927</v>
+        <v>0.7523342599754543</v>
       </c>
       <c r="C12" t="n">
-        <v>1431.848789238888</v>
+        <v>1371.935383279768</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>0.813477420360357</v>
+        <v>0.8193566700750151</v>
       </c>
       <c r="C13" t="n">
-        <v>1414.564115348205</v>
+        <v>1305.458865432282</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8449191719864813</v>
+        <v>0.7914199265006953</v>
       </c>
       <c r="C14" t="n">
-        <v>1304.614397258924</v>
+        <v>1437.449833469986</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8063001352684335</v>
+        <v>0.7988443921397115</v>
       </c>
       <c r="C15" t="n">
-        <v>1443.381395284079</v>
+        <v>1384.89815156137</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7695342094664741</v>
+        <v>0.7806608750092172</v>
       </c>
       <c r="C16" t="n">
-        <v>1497.311847696397</v>
+        <v>1439.998756285038</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7972671019527494</v>
+        <v>0.7933509792560152</v>
       </c>
       <c r="C17" t="n">
-        <v>1461.831581417386</v>
+        <v>1471.343228410097</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7478024414118269</v>
+        <v>0.7652355321426058</v>
       </c>
       <c r="C18" t="n">
-        <v>1514.134377042385</v>
+        <v>1415.326393993558</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7381790311790088</v>
+        <v>0.7505706167382864</v>
       </c>
       <c r="C19" t="n">
-        <v>1532.68004291905</v>
+        <v>1524.683160856493</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7868738594577673</v>
+        <v>0.7699976187578599</v>
       </c>
       <c r="C20" t="n">
-        <v>1477.096851418144</v>
+        <v>1547.860676216109</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7200437396421409</v>
+        <v>0.7481476643317236</v>
       </c>
       <c r="C21" t="n">
-        <v>1581.12087573014</v>
+        <v>1605.926798251454</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7594338703062931</v>
+        <v>0.7337010351915688</v>
       </c>
       <c r="C22" t="n">
-        <v>1517.862603532417</v>
+        <v>1592.289632969148</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>0.720469005570727</v>
+        <v>0.7474133211092592</v>
       </c>
       <c r="C23" t="n">
-        <v>1581.283859704751</v>
+        <v>1535.430040273633</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6989943912529167</v>
+        <v>0.7259535803126962</v>
       </c>
       <c r="C24" t="n">
-        <v>1580.471444112776</v>
+        <v>1584.496695032447</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7156609381928698</v>
+        <v>0.7543340506228744</v>
       </c>
       <c r="C25" t="n">
-        <v>1457.483391495165</v>
+        <v>1588.128052583164</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6788650371170379</v>
+        <v>0.7381529543870194</v>
       </c>
       <c r="C26" t="n">
-        <v>1477.067066054956</v>
+        <v>1634.693845178336</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7120278491430717</v>
+        <v>0.7341120516075068</v>
       </c>
       <c r="C27" t="n">
-        <v>1608.547913978742</v>
+        <v>1591.811207181045</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7784994347161992</v>
+        <v>0.7714130808254797</v>
       </c>
       <c r="C28" t="n">
-        <v>1578.836187895883</v>
+        <v>1574.351771573378</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7639797091839264</v>
+        <v>0.7229301131799444</v>
       </c>
       <c r="C29" t="n">
-        <v>1544.568433333829</v>
+        <v>1486.113421487276</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7566202658369076</v>
+        <v>0.7290378243274743</v>
       </c>
       <c r="C30" t="n">
-        <v>1548.076208345896</v>
+        <v>1549.717717588236</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7401676460122628</v>
+        <v>0.7321129906939056</v>
       </c>
       <c r="C31" t="n">
-        <v>1499.088447188997</v>
+        <v>1625.082313685699</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7746230282954534</v>
+        <v>0.7180674160785084</v>
       </c>
       <c r="C32" t="n">
-        <v>1630.772854336072</v>
+        <v>1604.656219710286</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7317269250485201</v>
+        <v>0.7114616686856237</v>
       </c>
       <c r="C33" t="n">
-        <v>1575.657392079685</v>
+        <v>1621.816565334836</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7391398467160007</v>
+        <v>0.7448597142499463</v>
       </c>
       <c r="C34" t="n">
-        <v>1570.719370411625</v>
+        <v>1594.36392902254</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7084550057977019</v>
+        <v>0.7584563873493739</v>
       </c>
       <c r="C35" t="n">
-        <v>1622.357935767749</v>
+        <v>1598.320439572442</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7849904822284267</v>
+        <v>0.7266219545177846</v>
       </c>
       <c r="C36" t="n">
-        <v>1594.549843161792</v>
+        <v>1532.285069557175</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6855554601763578</v>
+        <v>0.725158517041158</v>
       </c>
       <c r="C37" t="n">
-        <v>1556.272916178719</v>
+        <v>1617.919675798985</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7225527338605553</v>
+        <v>0.7594784446484469</v>
       </c>
       <c r="C38" t="n">
-        <v>1617.122178455776</v>
+        <v>1591.322595131728</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7808176073866452</v>
+        <v>0.7634949584619644</v>
       </c>
       <c r="C39" t="n">
-        <v>1648.428838215998</v>
+        <v>1588.582847466675</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7609893388237812</v>
+        <v>0.7626666153644749</v>
       </c>
       <c r="C40" t="n">
-        <v>1606.655121850596</v>
+        <v>1612.383485746417</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7509970291109104</v>
+        <v>0.7734724220359427</v>
       </c>
       <c r="C41" t="n">
-        <v>1630.71651174091</v>
+        <v>1604.884597914529</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7624025635597717</v>
+        <v>0.7327774950653181</v>
       </c>
       <c r="C42" t="n">
-        <v>1618.005034913355</v>
+        <v>1616.82863385424</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6828457052054407</v>
+        <v>0.7222255940211579</v>
       </c>
       <c r="C43" t="n">
-        <v>1714.309911624491</v>
+        <v>1651.717228332812</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7524910206503761</v>
+        <v>0.7917196534197586</v>
       </c>
       <c r="C44" t="n">
-        <v>1671.38992413799</v>
+        <v>1567.734868553328</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7590206360851326</v>
+        <v>0.7367788769459573</v>
       </c>
       <c r="C45" t="n">
-        <v>1622.142770090608</v>
+        <v>1640.540667670331</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7470175570289763</v>
+        <v>0.7035781767438969</v>
       </c>
       <c r="C46" t="n">
-        <v>1647.525646308501</v>
+        <v>1699.448496108139</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6945623499150776</v>
+        <v>0.7102249520563709</v>
       </c>
       <c r="C47" t="n">
-        <v>1694.011211379986</v>
+        <v>1695.794377688014</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7439730773019925</v>
+        <v>0.6985280780821775</v>
       </c>
       <c r="C48" t="n">
-        <v>1679.747432545532</v>
+        <v>1718.212790008111</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7023469280677366</v>
+        <v>0.6791920365074176</v>
       </c>
       <c r="C49" t="n">
-        <v>1649.049109880951</v>
+        <v>1671.976741662916</v>
       </c>
     </row>
   </sheetData>
